--- a/log_history/Y3_B2526_Parasitology_scanner1759736430501_cb0d81a3315d63a6eda874dc5c916ad792c8376b2a26c075362a1d47472cb431.xlsx
+++ b/log_history/Y3_B2526_Parasitology_scanner1759736430501_cb0d81a3315d63a6eda874dc5c916ad792c8376b2a26c075362a1d47472cb431.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y3_B2526_Parasitology_scanner1759736430501_cb0d81a3315d63a6eda874dc5c916ad792c8376b2a26c075362a1d47472cb431.xlsx
+++ b/log_history/Y3_B2526_Parasitology_scanner1759736430501_cb0d81a3315d63a6eda874dc5c916ad792c8376b2a26c075362a1d47472cb431.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Parasitology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
